--- a/Schemas y documentacion.xlsx
+++ b/Schemas y documentacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgonzalez\Documents\App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgonzalez\Documents\App\Fujitec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Schemas</t>
   </si>
@@ -74,9 +74,6 @@
     <t>job_name</t>
   </si>
   <si>
-    <t>number_ele-esc</t>
-  </si>
-  <si>
     <t>ticket_status</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>solution</t>
   </si>
   <si>
-    <t>ticket_alive</t>
-  </si>
-  <si>
     <t>job_address</t>
   </si>
   <si>
@@ -98,17 +92,35 @@
     <t>last_connection</t>
   </si>
   <si>
-    <t>status_ele-esc</t>
-  </si>
-  <si>
-    <t>RT</t>
+    <t>user</t>
+  </si>
+  <si>
+    <t>index y requiered</t>
+  </si>
+  <si>
+    <t>number_ele_esc</t>
+  </si>
+  <si>
+    <t>status_ele_esc</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>job_data</t>
+  </si>
+  <si>
+    <t>ticket_createdAt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +146,14 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,59 +279,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,51 +616,52 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -657,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -665,39 +687,46 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20"/>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>15</v>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -705,39 +734,43 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
